--- a/database/industries/felezat/fasmin/product/yearly.xlsx
+++ b/database/industries/felezat/fasmin/product/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\felezat\fasmin\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\felezat\fasmin\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488664EA-E49F-4AA2-957F-4E92162AC017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1C3072-AA70-42EB-9F69-8E3091A25CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -572,12 +572,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -587,7 +587,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -599,7 +599,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -611,7 +611,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -621,7 +621,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -633,7 +633,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -645,7 +645,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -655,7 +655,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -677,7 +677,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -687,7 +687,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>13</v>
       </c>
@@ -735,7 +735,7 @@
         <v>4460</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
@@ -759,7 +759,7 @@
         <v>39125</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -783,7 +783,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>16</v>
       </c>
@@ -807,7 +807,7 @@
         <v>166874</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
@@ -831,7 +831,7 @@
         <v>15445</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>18</v>
       </c>
@@ -855,7 +855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>19</v>
       </c>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>20</v>
       </c>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>21</v>
       </c>
@@ -923,7 +923,7 @@
         <v>225904</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -933,7 +933,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -943,7 +943,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -953,7 +953,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B23" s="7" t="s">
         <v>22</v>
       </c>
@@ -975,7 +975,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -985,7 +985,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
         <v>10</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>13</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>4399</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
         <v>14</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>38761</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
         <v>15</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>16</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>28993</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>23</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>17</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>18</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>19</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>25</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>20</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>21</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>72890</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1279,7 +1279,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1289,7 +1289,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1299,7 +1299,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B40" s="7" t="s">
         <v>26</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1331,7 +1331,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>10</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>13</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>1424326</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>14</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>29006991</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>15</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>16</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>997112</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>23</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>17</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>18</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>409148</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>19</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>78143</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>25</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
         <v>20</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="12" t="s">
         <v>21</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>31915720</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1627,7 +1627,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1637,7 +1637,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1647,7 +1647,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B57" s="7" t="s">
         <v>28</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1679,7 +1679,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>10</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>13</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>323784042</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>14</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>748355073</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>15</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>16</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>34391474</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>23</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>17</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>18</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>555153324</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>19</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>25</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>20</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1953,7 +1953,7 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -1963,7 +1963,7 @@
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1973,7 +1973,7 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B73" s="7" t="s">
         <v>31</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2005,7 +2005,7 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>10</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>13</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>-726018</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>14</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>-12411488</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>15</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>16</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>-687537</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>23</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>17</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>18</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>-369906</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>19</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>25</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>20</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="12" t="s">
         <v>21</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>-14194949</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2301,7 +2301,7 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2311,7 +2311,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2321,7 +2321,7 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B90" s="7" t="s">
         <v>32</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2353,7 +2353,7 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="8" t="s">
         <v>10</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>13</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>698308</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
         <v>14</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>16595503</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>15</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="8" t="s">
         <v>16</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>309575</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>23</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="8" t="s">
         <v>17</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>18</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>39242</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="8" t="s">
         <v>19</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>78143</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
         <v>25</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="8" t="s">
         <v>20</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="12" t="s">
         <v>21</v>
       </c>
